--- a/CompArch-hw1/comparison.xlsx
+++ b/CompArch-hw1/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel\Desktop\hw1_mivne\CompArch-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A418B31-8FCE-4539-8D81-5635D173835D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB9E0894-1F1B-40AE-85FD-14A17CEB262F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="3492" xr2:uid="{6E3CE82B-AB34-47A9-8D04-8882B6DD55D7}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB594BED-7778-48B3-849B-D9A891F7CC59}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>52</v>
